--- a/lsj-study-excel/lsj-study-excel-biz/src/main/resources/temp/excel/联邮通报价模板_2.xlsx
+++ b/lsj-study-excel/lsj-study-excel-biz/src/main/resources/temp/excel/联邮通报价模板_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="599"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="价格表目录" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t xml:space="preserve">       联邮通报价目录表</t>
   </si>
@@ -74,13 +74,16 @@
     <t>{.desc}</t>
   </si>
   <si>
+    <t>{.hyperlink}</t>
+  </si>
+  <si>
+    <t>{vatRateIndex}</t>
+  </si>
+  <si>
+    <t>VAT税率参照表</t>
+  </si>
+  <si>
     <t>点击进入</t>
-  </si>
-  <si>
-    <t>{vatRateIndex}</t>
-  </si>
-  <si>
-    <t>VAT税率参照表</t>
   </si>
   <si>
     <t>{abnormalIndex}</t>
@@ -743,11 +746,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="39">
@@ -868,8 +871,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,84 +915,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,11 +944,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1006,21 +1008,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1047,19 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,7 +1074,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,7 +1104,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,7 +1140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,7 +1158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,19 +1176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,31 +1188,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,13 +1212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,24 +1228,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="45">
     <border>
@@ -1718,15 +1721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1742,6 +1736,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1757,17 +1766,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1790,10 +1793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1802,166 +1805,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1974,13 +1977,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2232,16 +2235,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="55" applyFont="1" applyAlignment="1">
@@ -2306,8 +2306,8 @@
     <cellStyle name="常规 10 6" xfId="54"/>
     <cellStyle name="常规 5" xfId="55"/>
     <cellStyle name="超链接 2" xfId="56"/>
-    <cellStyle name="超链接 14" xfId="57"/>
-    <cellStyle name="常规 148" xfId="58"/>
+    <cellStyle name="常规 148" xfId="57"/>
+    <cellStyle name="超链接 14" xfId="58"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2743,8 +2743,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2843,7 +2843,7 @@
       <c r="G5" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2851,45 +2851,45 @@
       <c r="A6" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92" t="s">
-        <v>18</v>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="38" customHeight="1" spans="1:8">
       <c r="A7" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="8" ht="61" customHeight="1" spans="1:8">
-      <c r="A8" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="A8" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
     </row>
     <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="11"/>
@@ -2898,10 +2898,10 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="94"/>
+      <c r="G9" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2916,7 +2916,6 @@
   <hyperlinks>
     <hyperlink ref="H6" location="VAT税率参照表!A1" display="点击进入"/>
     <hyperlink ref="H7" location="异常件说明!A1" display="点击进入"/>
-    <hyperlink ref="H5" location="'联邮通优先挂号-普货（PX）'!A1" display="点击进入"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2946,7 +2945,7 @@
   <sheetData>
     <row r="1" ht="54" customHeight="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2965,7 +2964,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
       <c r="H2" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:8">
@@ -2973,23 +2972,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="33" spans="1:8">
@@ -2997,10 +2996,10 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -3011,30 +3010,30 @@
         <v>11</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:8">
       <c r="A7" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -3049,10 +3048,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -3065,10 +3064,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -3081,10 +3080,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
@@ -3097,10 +3096,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -3112,7 +3111,7 @@
       <c r="A12" s="41"/>
       <c r="B12" s="42"/>
       <c r="C12" s="43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
@@ -3124,7 +3123,7 @@
       <c r="A13" s="41"/>
       <c r="B13" s="42"/>
       <c r="C13" s="45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
@@ -3136,7 +3135,7 @@
       <c r="A14" s="41"/>
       <c r="B14" s="42"/>
       <c r="C14" s="43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -3148,7 +3147,7 @@
       <c r="A15" s="41"/>
       <c r="B15" s="42"/>
       <c r="C15" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
@@ -3161,10 +3160,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
@@ -3176,7 +3175,7 @@
       <c r="A17" s="41"/>
       <c r="B17" s="50"/>
       <c r="C17" s="43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
@@ -3188,7 +3187,7 @@
       <c r="A18" s="30"/>
       <c r="B18" s="51"/>
       <c r="C18" s="52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
@@ -3201,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
@@ -3217,10 +3216,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
@@ -3233,10 +3232,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
@@ -3249,10 +3248,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
@@ -3264,7 +3263,7 @@
       <c r="A23" s="30"/>
       <c r="B23" s="61"/>
       <c r="C23" s="62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
@@ -3277,10 +3276,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="65"/>
       <c r="E24" s="65"/>
@@ -3293,10 +3292,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
@@ -3308,7 +3307,7 @@
       <c r="A26" s="68"/>
       <c r="B26" s="67"/>
       <c r="C26" s="43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
@@ -3320,7 +3319,7 @@
       <c r="A27" s="68"/>
       <c r="B27" s="67"/>
       <c r="C27" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44"/>
@@ -3332,7 +3331,7 @@
       <c r="A28" s="68"/>
       <c r="B28" s="67"/>
       <c r="C28" s="43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="44"/>
@@ -3344,7 +3343,7 @@
       <c r="A29" s="69"/>
       <c r="B29" s="67"/>
       <c r="C29" s="70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
@@ -3357,10 +3356,10 @@
         <v>11</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="73"/>
@@ -3373,10 +3372,10 @@
         <v>12</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="76"/>
       <c r="E31" s="77"/>
@@ -3443,8 +3442,8 @@
   <sheetPr/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3461,7 +3460,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
@@ -3469,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="6">
         <v>0.2</v>
@@ -3480,7 +3479,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="6">
         <v>0.21</v>
@@ -3491,7 +3490,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="6">
         <v>0.2</v>
@@ -3502,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="6">
         <v>0.25</v>
@@ -3513,7 +3512,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6">
         <v>0.19</v>
@@ -3524,7 +3523,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="6">
         <v>0.21</v>
@@ -3535,7 +3534,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="6">
         <v>0.25</v>
@@ -3546,7 +3545,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="6">
         <v>0.2</v>
@@ -3557,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" s="6">
         <v>0.24</v>
@@ -3568,7 +3567,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="6">
         <v>0.2</v>
@@ -3579,7 +3578,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" s="6">
         <v>0.19</v>
@@ -3590,7 +3589,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" s="6">
         <v>0.24</v>
@@ -3601,7 +3600,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" s="6">
         <v>0.27</v>
@@ -3612,7 +3611,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" s="6">
         <v>0.23</v>
@@ -3623,7 +3622,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C16" s="6">
         <v>0.22</v>
@@ -3634,7 +3633,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" s="6">
         <v>0.21</v>
@@ -3645,7 +3644,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="6">
         <v>0.21</v>
@@ -3656,7 +3655,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" s="6">
         <v>0.17</v>
@@ -3667,7 +3666,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" s="6">
         <v>0.18</v>
@@ -3678,7 +3677,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" s="6">
         <v>0.21</v>
@@ -3689,7 +3688,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="6">
         <v>0.23</v>
@@ -3700,7 +3699,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="6">
         <v>0.23</v>
@@ -3711,7 +3710,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="6">
         <v>0.19</v>
@@ -3722,7 +3721,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" s="6">
         <v>0.2</v>
@@ -3733,7 +3732,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C26" s="6">
         <v>0.22</v>
@@ -3744,7 +3743,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" s="6">
         <v>0.21</v>
@@ -3755,7 +3754,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28" s="6">
         <v>0.25</v>
@@ -3785,10 +3784,10 @@
   <sheetData>
     <row r="1" ht="199" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:2">
